--- a/data/supplementary_spu_lists/GRN.xlsx
+++ b/data/supplementary_spu_lists/GRN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csengeswork/Desktop/urchin_adaptation/data/supplementary_spu_lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACBD512-94C2-0241-BB52-34BD1E364184}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799AAF7-A8E0-5645-88B8-8DCE6AF6ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{B869ACFC-E866-5545-ACB6-43CFF9233AF8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{B869ACFC-E866-5545-ACB6-43CFF9233AF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
   <si>
     <t>Gene name</t>
   </si>
@@ -320,16 +320,202 @@
   </si>
   <si>
     <t>not found (many weird hits)</t>
+  </si>
+  <si>
+    <t>Rafiq</t>
+  </si>
+  <si>
+    <t>SPU_20371</t>
+  </si>
+  <si>
+    <t>in TF supp</t>
+  </si>
+  <si>
+    <t>SPU_012253</t>
+  </si>
+  <si>
+    <t>SPU_002631</t>
+  </si>
+  <si>
+    <t>SPU_002603</t>
+  </si>
+  <si>
+    <t>SPU_027235</t>
+  </si>
+  <si>
+    <t>SPU_010635</t>
+  </si>
+  <si>
+    <t>SPU_006676</t>
+  </si>
+  <si>
+    <t>SPU_013015</t>
+  </si>
+  <si>
+    <t>SPU_001739</t>
+  </si>
+  <si>
+    <t>SPU_004148</t>
+  </si>
+  <si>
+    <t>SPU_003166</t>
+  </si>
+  <si>
+    <t>SPU_012469</t>
+  </si>
+  <si>
+    <t>SPU_008196</t>
+  </si>
+  <si>
+    <t>SPU_027015</t>
+  </si>
+  <si>
+    <t>SPU_016443</t>
+  </si>
+  <si>
+    <t>Sp-Dach?</t>
+  </si>
+  <si>
+    <t>SPU_018581</t>
+  </si>
+  <si>
+    <t>SPU_028061</t>
+  </si>
+  <si>
+    <t>Sp-Hhex?</t>
+  </si>
+  <si>
+    <t>SPU_027214</t>
+  </si>
+  <si>
+    <t>SPU_027215</t>
+  </si>
+  <si>
+    <t>SPU_000975</t>
+  </si>
+  <si>
+    <t>SPU_016881</t>
+  </si>
+  <si>
+    <t>SPU_010403</t>
+  </si>
+  <si>
+    <t>Sp-Prox1?</t>
+  </si>
+  <si>
+    <t>SPU_015984</t>
+  </si>
+  <si>
+    <t>SPU_024903</t>
+  </si>
+  <si>
+    <t>SPU_002129</t>
+  </si>
+  <si>
+    <t>SPU_006462</t>
+  </si>
+  <si>
+    <t>SPU_028093</t>
+  </si>
+  <si>
+    <t>SPU_017379</t>
+  </si>
+  <si>
+    <t>SPU_012645</t>
+  </si>
+  <si>
+    <t>SPU_021608</t>
+  </si>
+  <si>
+    <t>SPU_025584</t>
+  </si>
+  <si>
+    <t>SPU_028479</t>
+  </si>
+  <si>
+    <t>SPU_018483</t>
+  </si>
+  <si>
+    <t>hhex?</t>
+  </si>
+  <si>
+    <t>SPU_018126</t>
+  </si>
+  <si>
+    <t>SPU_015243</t>
+  </si>
+  <si>
+    <t>SPU_005718</t>
+  </si>
+  <si>
+    <t>SPU_004551</t>
+  </si>
+  <si>
+    <t>SPU_009178</t>
+  </si>
+  <si>
+    <t>SPU_14721</t>
+  </si>
+  <si>
+    <t>SPU_22817</t>
+  </si>
+  <si>
+    <t>SPU_25302</t>
+  </si>
+  <si>
+    <t>SPU_02874</t>
+  </si>
+  <si>
+    <t>SPU_16128</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vegfr-Ig-10 </t>
+  </si>
+  <si>
+    <t>SPU_00310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18810/18811 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">02088/13821 </t>
+  </si>
+  <si>
+    <t>list  in rafiq</t>
+  </si>
+  <si>
+    <t>SPU_22598</t>
+  </si>
+  <si>
+    <t>cyp1 and cyp2 in rafiq</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="FrutigerLTStd"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="FrutigerLTStd"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -355,8 +541,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -671,15 +860,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB9C000-459F-7B4D-A21F-478046A540AD}">
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="264" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -687,7 +876,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -695,7 +884,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -703,7 +892,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -711,7 +900,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>93</v>
       </c>
@@ -719,432 +908,739 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>109</v>
+      </c>
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>124</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>139</v>
+      </c>
+      <c r="C57" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>140</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+      <c r="D62" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
+        <v>143</v>
+      </c>
+      <c r="C69" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B72" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C76" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B79" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" t="s">
+        <v>145</v>
+      </c>
+      <c r="D79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B81" s="1">
+        <v>28945</v>
+      </c>
+      <c r="C81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3">
       <c r="A91" t="s">
         <v>88</v>
       </c>

--- a/data/supplementary_spu_lists/GRN.xlsx
+++ b/data/supplementary_spu_lists/GRN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csengeswork/Desktop/urchin_adaptation/data/supplementary_spu_lists/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1799AAF7-A8E0-5645-88B8-8DCE6AF6ADBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33EB0F91-DA05-674A-A37A-1E7756DAC4DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" xr2:uid="{B869ACFC-E866-5545-ACB6-43CFF9233AF8}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="143">
   <si>
     <t>Gene name</t>
   </si>
@@ -49,36 +49,21 @@
     <t>Otx</t>
   </si>
   <si>
-    <t>ECNS</t>
-  </si>
-  <si>
     <t>RhoA</t>
   </si>
   <si>
-    <t>G cadherin</t>
-  </si>
-  <si>
     <t>Wnt8</t>
   </si>
   <si>
     <t>GSK-3</t>
   </si>
   <si>
-    <t>n beta TCF</t>
-  </si>
-  <si>
-    <t>frizzled</t>
-  </si>
-  <si>
     <t>Smad</t>
   </si>
   <si>
     <t>Wnt16</t>
   </si>
   <si>
-    <t>Signal V2</t>
-  </si>
-  <si>
     <t>Eve</t>
   </si>
   <si>
@@ -130,15 +115,6 @@
     <t>Smo</t>
   </si>
   <si>
-    <t>Hh</t>
-  </si>
-  <si>
-    <t>Dac</t>
-  </si>
-  <si>
-    <t>Ptc</t>
-  </si>
-  <si>
     <t>FoxF</t>
   </si>
   <si>
@@ -151,21 +127,6 @@
     <t>Notch</t>
   </si>
   <si>
-    <t>SU(H)</t>
-  </si>
-  <si>
-    <t>Su(H):N</t>
-  </si>
-  <si>
-    <t>Runx</t>
-  </si>
-  <si>
-    <t>Gene X</t>
-  </si>
-  <si>
-    <t>Prox</t>
-  </si>
-  <si>
     <t>Ese</t>
   </si>
   <si>
@@ -205,36 +166,18 @@
     <t>HesC</t>
   </si>
   <si>
-    <t>ES</t>
-  </si>
-  <si>
     <t>Activin B</t>
   </si>
   <si>
-    <t>Ubiq</t>
-  </si>
-  <si>
     <t>Alx1</t>
   </si>
   <si>
     <t>Ets1</t>
   </si>
   <si>
-    <t>gamma(2)</t>
-  </si>
-  <si>
-    <t>alpha</t>
-  </si>
-  <si>
     <t>TBr</t>
   </si>
   <si>
-    <t>r11</t>
-  </si>
-  <si>
-    <t>pm</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -244,9 +187,6 @@
     <t>Erg</t>
   </si>
   <si>
-    <t>Hex</t>
-  </si>
-  <si>
     <t>Tgif</t>
   </si>
   <si>
@@ -265,12 +205,6 @@
     <t>FoxO</t>
   </si>
   <si>
-    <t>VEGFR</t>
-  </si>
-  <si>
-    <t>L1</t>
-  </si>
-  <si>
     <t>sm27</t>
   </si>
   <si>
@@ -280,30 +214,12 @@
     <t>msp130</t>
   </si>
   <si>
-    <t>msp-L</t>
-  </si>
-  <si>
     <t>sm30</t>
   </si>
   <si>
-    <t>G-cadherin</t>
-  </si>
-  <si>
     <t>Ficolin</t>
   </si>
   <si>
-    <t>CyP</t>
-  </si>
-  <si>
-    <t>SuTx</t>
-  </si>
-  <si>
-    <t>Dpt</t>
-  </si>
-  <si>
-    <t>FvMo1,2,3</t>
-  </si>
-  <si>
     <t>Legacy Echinobase</t>
   </si>
   <si>
@@ -316,18 +232,9 @@
     <t>SPU_010424</t>
   </si>
   <si>
-    <t>cytoplasmic β-catenin</t>
-  </si>
-  <si>
-    <t>not found (many weird hits)</t>
-  </si>
-  <si>
     <t>Rafiq</t>
   </si>
   <si>
-    <t>SPU_20371</t>
-  </si>
-  <si>
     <t>in TF supp</t>
   </si>
   <si>
@@ -373,18 +280,12 @@
     <t>SPU_016443</t>
   </si>
   <si>
-    <t>Sp-Dach?</t>
-  </si>
-  <si>
     <t>SPU_018581</t>
   </si>
   <si>
     <t>SPU_028061</t>
   </si>
   <si>
-    <t>Sp-Hhex?</t>
-  </si>
-  <si>
     <t>SPU_027214</t>
   </si>
   <si>
@@ -400,9 +301,6 @@
     <t>SPU_010403</t>
   </si>
   <si>
-    <t>Sp-Prox1?</t>
-  </si>
-  <si>
     <t>SPU_015984</t>
   </si>
   <si>
@@ -436,9 +334,6 @@
     <t>SPU_018483</t>
   </si>
   <si>
-    <t>hhex?</t>
-  </si>
-  <si>
     <t>SPU_018126</t>
   </si>
   <si>
@@ -454,47 +349,128 @@
     <t>SPU_009178</t>
   </si>
   <si>
-    <t>SPU_14721</t>
-  </si>
-  <si>
-    <t>SPU_22817</t>
-  </si>
-  <si>
     <t>SPU_25302</t>
   </si>
   <si>
-    <t>SPU_02874</t>
-  </si>
-  <si>
-    <t>SPU_16128</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vegfr-Ig-10 </t>
-  </si>
-  <si>
-    <t>SPU_00310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18810/18811 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">02088/13821 </t>
-  </si>
-  <si>
-    <t>list  in rafiq</t>
-  </si>
-  <si>
-    <t>SPU_22598</t>
-  </si>
-  <si>
-    <t>cyp1 and cyp2 in rafiq</t>
+    <t>new echinobase</t>
+  </si>
+  <si>
+    <t>questionable</t>
+  </si>
+  <si>
+    <t>SPU_011029</t>
+  </si>
+  <si>
+    <t>SPU_022447</t>
+  </si>
+  <si>
+    <t>SPU_011130</t>
+  </si>
+  <si>
+    <t>SPU_011064</t>
+  </si>
+  <si>
+    <t>SPU_027914</t>
+  </si>
+  <si>
+    <t>SPU_012832</t>
+  </si>
+  <si>
+    <t>SPU_009263</t>
+  </si>
+  <si>
+    <t>SPU_011038</t>
+  </si>
+  <si>
+    <t>SPU_004340</t>
+  </si>
+  <si>
+    <t>SPU_006789</t>
+  </si>
+  <si>
+    <t>Hh (Sp-Hhex?)</t>
+  </si>
+  <si>
+    <t>Dac (Sp-Dach?)</t>
+  </si>
+  <si>
+    <t>SPU_014131</t>
+  </si>
+  <si>
+    <t>Prox (Sp-Prox1?)</t>
+  </si>
+  <si>
+    <t>SPU_010168</t>
+  </si>
+  <si>
+    <t>SPU_030148</t>
+  </si>
+  <si>
+    <t>SPU_002895</t>
+  </si>
+  <si>
+    <t>SPU_005531</t>
+  </si>
+  <si>
+    <t>SPU_022038</t>
+  </si>
+  <si>
+    <t>SPU_016449</t>
+  </si>
+  <si>
+    <t>SPU_007004</t>
+  </si>
+  <si>
+    <t>SPU_013698</t>
+  </si>
+  <si>
+    <t>VEGFR (vegfr-Ig-10 )</t>
+  </si>
+  <si>
+    <t>SPU_028945</t>
+  </si>
+  <si>
+    <t>SPU_018811</t>
+  </si>
+  <si>
+    <t>SPU_018810</t>
+  </si>
+  <si>
+    <t>SPU_013821</t>
+  </si>
+  <si>
+    <t>SPU_002088</t>
+  </si>
+  <si>
+    <t>SPU_000825</t>
+  </si>
+  <si>
+    <t>SPU_020371</t>
+  </si>
+  <si>
+    <t>SPU_014721</t>
+  </si>
+  <si>
+    <t>SPU_022817</t>
+  </si>
+  <si>
+    <t>SPU_002874</t>
+  </si>
+  <si>
+    <t>SPU_016128</t>
+  </si>
+  <si>
+    <t>SPU_000310</t>
+  </si>
+  <si>
+    <t>SPU_022598</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -520,6 +496,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -541,11 +523,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,794 +843,821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB9C000-459F-7B4D-A21F-478046A540AD}">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="16.1640625" style="4" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B1" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="B3" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="B4" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="B8" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
+      <c r="B10" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="E10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
+      <c r="B11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="B12" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B13" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B17" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="B18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
+      <c r="B20" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
+      <c r="B21" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
+      <c r="B23" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
+      <c r="B24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
+      <c r="B25" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" t="s">
         <v>105</v>
       </c>
-      <c r="C25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>106</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>107</v>
-      </c>
-      <c r="C27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
-        <v>108</v>
-      </c>
-      <c r="C28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>109</v>
-      </c>
-      <c r="C29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>110</v>
+      <c r="B30" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>29</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>30</v>
+        <v>118</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
-      </c>
-      <c r="D34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>118</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>119</v>
       </c>
       <c r="C38" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
         <v>120</v>
       </c>
-      <c r="C39" t="s">
-        <v>97</v>
+      <c r="B39" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C44" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>121</v>
+        <v>35</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>122</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>43</v>
-      </c>
-      <c r="B46" t="s">
-        <v>123</v>
+        <v>36</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C46" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C48" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>39</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" t="s">
+        <v>105</v>
+      </c>
+      <c r="E50" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+      <c r="D55" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
         <v>45</v>
       </c>
-      <c r="B48" t="s">
-        <v>124</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" t="s">
-        <v>125</v>
-      </c>
-      <c r="C49" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="C59" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
         <v>49</v>
       </c>
-      <c r="B52" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B60" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
         <v>50</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B61" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="C63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="B64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
         <v>54</v>
       </c>
-      <c r="B57" t="s">
-        <v>139</v>
-      </c>
-      <c r="C57" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B65" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
         <v>55</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B66" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B68" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" t="s">
+      <c r="B69" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>57</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" t="s">
+      <c r="B71" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
         <v>59</v>
       </c>
-      <c r="B62" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" t="s">
-        <v>141</v>
-      </c>
-      <c r="D62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" t="s">
+      <c r="B73" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
         <v>60</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C63" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" t="s">
+      <c r="C74" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69" t="s">
-        <v>143</v>
-      </c>
-      <c r="C69" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" t="s">
-        <v>131</v>
-      </c>
-      <c r="C70" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D72" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" t="s">
-        <v>71</v>
-      </c>
-      <c r="B74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" t="s">
-        <v>73</v>
-      </c>
-      <c r="B76" t="s">
-        <v>136</v>
-      </c>
-      <c r="C76" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" t="s">
-        <v>74</v>
-      </c>
-      <c r="B77" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" t="s">
-        <v>75</v>
-      </c>
-      <c r="B78" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" t="s">
-        <v>76</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C79" t="s">
-        <v>145</v>
-      </c>
-      <c r="D79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
-        <v>78</v>
-      </c>
-      <c r="B81" s="1">
-        <v>28945</v>
-      </c>
-      <c r="C81" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="s">
-        <v>79</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="s">
-        <v>80</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="s">
-        <v>82</v>
-      </c>
-      <c r="B85" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="s">
-        <v>84</v>
-      </c>
-      <c r="B87" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
-        <v>85</v>
-      </c>
-      <c r="B88" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D91">
-    <sortCondition ref="D2:D91"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:D74">
+    <sortCondition ref="D2:D74"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
